--- a/data/trans_orig/P16A_2_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>147437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126481</v>
+        <v>125839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168571</v>
+        <v>167249</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2956187142847039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2536013227208556</v>
+        <v>0.2523135304756975</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3379950680113867</v>
+        <v>0.3353428663024842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>453</v>
@@ -762,19 +762,19 @@
         <v>290038</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>266278</v>
+        <v>267329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311780</v>
+        <v>313768</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4651173532275978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4270150601139673</v>
+        <v>0.4287003955572728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4999838840506436</v>
+        <v>0.5031712548787071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>607</v>
@@ -783,19 +783,19 @@
         <v>437475</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>406520</v>
+        <v>405829</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>467074</v>
+        <v>471068</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3897951021942737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3622135831747482</v>
+        <v>0.3615980036816666</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4161679916090465</v>
+        <v>0.4197270425140739</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>351302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>330168</v>
+        <v>331490</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372258</v>
+        <v>372900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7043812857152961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6620049319886132</v>
+        <v>0.6646571336975158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7463986772791449</v>
+        <v>0.7476864695243024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -833,19 +833,19 @@
         <v>333542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311800</v>
+        <v>309812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357302</v>
+        <v>356251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.534882646772402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5000161159493566</v>
+        <v>0.4968287451212932</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5729849398860328</v>
+        <v>0.5712996044427274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>709</v>
@@ -854,19 +854,19 @@
         <v>684845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>655246</v>
+        <v>651252</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>715800</v>
+        <v>716491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6102048978057264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5838320083909536</v>
+        <v>0.5802729574859259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6377864168252518</v>
+        <v>0.6384019963183333</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>226749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>199634</v>
+        <v>199477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253783</v>
+        <v>255238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2361631780426106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2079226169117315</v>
+        <v>0.2077594000887688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2643199186986672</v>
+        <v>0.2658349883538147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>732</v>
@@ -979,19 +979,19 @@
         <v>451854</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>424731</v>
+        <v>421945</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>480289</v>
+        <v>479675</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.404941575455427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3806347935481822</v>
+        <v>0.3781382273248811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4304246991382651</v>
+        <v>0.4298748552836379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>988</v>
@@ -1000,19 +1000,19 @@
         <v>678603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>639702</v>
+        <v>641297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>717768</v>
+        <v>723954</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3268821229333634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3081434621222158</v>
+        <v>0.3089119922026708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3457478689690695</v>
+        <v>0.3487280157205047</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>733388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>706354</v>
+        <v>704899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>760503</v>
+        <v>760660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7638368219573894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7356800813013327</v>
+        <v>0.7341650116461854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7920773830882685</v>
+        <v>0.7922405999112315</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>875</v>
@@ -1050,19 +1050,19 @@
         <v>663995</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>635560</v>
+        <v>636174</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>691118</v>
+        <v>693904</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5950584245445729</v>
+        <v>0.595058424544573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.569575300861735</v>
+        <v>0.570125144716362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6193652064518178</v>
+        <v>0.6218617726751189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1529</v>
@@ -1071,19 +1071,19 @@
         <v>1397383</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1358218</v>
+        <v>1352032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1436284</v>
+        <v>1434689</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6731178770666367</v>
+        <v>0.6731178770666366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6542521310309304</v>
+        <v>0.6512719842794952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.691856537877784</v>
+        <v>0.6910880077973293</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>223641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>197395</v>
+        <v>196888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253806</v>
+        <v>254567</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2137078158350801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1886273190031804</v>
+        <v>0.1881436568087155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2425332006190909</v>
+        <v>0.243260054330188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>611</v>
@@ -1196,19 +1196,19 @@
         <v>378957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>352272</v>
+        <v>352843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>404535</v>
+        <v>405473</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3617240080919516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.336252726017302</v>
+        <v>0.336797597848261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3861385411669228</v>
+        <v>0.3870342849981064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>847</v>
@@ -1217,19 +1217,19 @@
         <v>602598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>561837</v>
+        <v>561222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>645450</v>
+        <v>639433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2877569907036699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2682923541311654</v>
+        <v>0.2679987326828621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3082200800936712</v>
+        <v>0.3053469382670592</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>822838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>792673</v>
+        <v>791912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>849084</v>
+        <v>849591</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7862921841649199</v>
+        <v>0.78629218416492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7574667993809091</v>
+        <v>0.7567399456698121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8113726809968194</v>
+        <v>0.8118563431912844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>905</v>
@@ -1267,19 +1267,19 @@
         <v>668685</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643107</v>
+        <v>642169</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>695370</v>
+        <v>694799</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6382759919080484</v>
+        <v>0.6382759919080485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6138614588330772</v>
+        <v>0.6129657150018935</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6637472739826985</v>
+        <v>0.6632024021517389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1698</v>
@@ -1288,19 +1288,19 @@
         <v>1491523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1448671</v>
+        <v>1454688</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1532284</v>
+        <v>1532899</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.71224300929633</v>
+        <v>0.7122430092963301</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6917799199063289</v>
+        <v>0.6946530617329407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7317076458688349</v>
+        <v>0.732001267317138</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>223764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195115</v>
+        <v>198435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255068</v>
+        <v>256460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2292830808576485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1999270289856674</v>
+        <v>0.2033291952555614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.261359163416051</v>
+        <v>0.2627858643721169</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>471</v>
@@ -1413,19 +1413,19 @@
         <v>304512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>280468</v>
+        <v>279003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>331584</v>
+        <v>330049</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3345018374235182</v>
+        <v>0.3345018374235183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3080896350950639</v>
+        <v>0.3064801129331266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3642402993668004</v>
+        <v>0.3625535749216466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>694</v>
@@ -1434,19 +1434,19 @@
         <v>528276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>491510</v>
+        <v>488573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>566246</v>
+        <v>563131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2800632743164196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2605716363242093</v>
+        <v>0.2590149179668206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3001926268328918</v>
+        <v>0.298541483198175</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>752165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>720861</v>
+        <v>719469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>780814</v>
+        <v>777494</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7707169191423515</v>
+        <v>0.7707169191423514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7386408365839491</v>
+        <v>0.737214135627883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8000729710143326</v>
+        <v>0.7966708047444384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>853</v>
@@ -1484,19 +1484,19 @@
         <v>605833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>578761</v>
+        <v>580296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>629877</v>
+        <v>631342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6654981625764819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6357597006331999</v>
+        <v>0.6374464250783535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6919103649049361</v>
+        <v>0.6935198870668735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1577</v>
@@ -1505,19 +1505,19 @@
         <v>1357998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1320028</v>
+        <v>1323143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1394764</v>
+        <v>1397701</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7199367256835805</v>
+        <v>0.7199367256835804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6998073731671082</v>
+        <v>0.7014585168018247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7394283636757907</v>
+        <v>0.7409850820331794</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>821590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>775879</v>
+        <v>767910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>877500</v>
+        <v>877455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2360021047697206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.222871586904623</v>
+        <v>0.220582393452906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2520622841621121</v>
+        <v>0.2520492116856977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2267</v>
@@ -1630,19 +1630,19 @@
         <v>1425361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1371312</v>
+        <v>1374584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1473535</v>
+        <v>1476049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3855019050551595</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3708837829309969</v>
+        <v>0.3717688328749948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3985310018881472</v>
+        <v>0.3992110885520331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3136</v>
@@ -1651,19 +1651,19 @@
         <v>2246952</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2166584</v>
+        <v>2175976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2320354</v>
+        <v>2328299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3130025271318232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.301807277833497</v>
+        <v>0.3031155075196231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3232275252472399</v>
+        <v>0.3243343462468916</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2659694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2603784</v>
+        <v>2603829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2705405</v>
+        <v>2713374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7639978952302795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.747937715837888</v>
+        <v>0.7479507883143022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7771284130953773</v>
+        <v>0.7794176065470936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3041</v>
@@ -1701,19 +1701,19 @@
         <v>2272055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2223881</v>
+        <v>2221367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2326104</v>
+        <v>2322832</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6144980949448404</v>
+        <v>0.6144980949448403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6014689981118526</v>
+        <v>0.600788911447967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.629116217069003</v>
+        <v>0.6282311671250052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5513</v>
@@ -1722,19 +1722,19 @@
         <v>4931749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4858347</v>
+        <v>4850402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5012117</v>
+        <v>5002725</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6869974728681767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6767724747527606</v>
+        <v>0.6756656537531083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6981927221665033</v>
+        <v>0.696884492480377</v>
       </c>
     </row>
     <row r="18">
